--- a/data/trans_orig/P36S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290F0A27-D117-490A-ADAD-B6A2DDC337F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB343F7-9044-4E3B-BA13-098FE551C193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C1569C1-788C-4C9F-A374-FD5DFDC6A69A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B56AA629-34B5-4F6D-BEFA-958E9FC16748}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="540">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -76,1597 +76,1588 @@
     <t>1,29%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
   </si>
 </sst>
 </file>
@@ -2078,7 +2069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762C11B4-4F72-4CE8-B6DB-24889FF3B51F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7F40D-1DBD-438B-BAAC-5472AD1B510E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2582,7 +2573,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -2591,13 +2582,13 @@
         <v>17414</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2603,13 @@
         <v>30940</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2627,13 +2618,13 @@
         <v>35590</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2642,13 +2633,13 @@
         <v>66531</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2654,13 @@
         <v>505596</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -2678,13 +2669,13 @@
         <v>423023</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -2693,13 +2684,13 @@
         <v>928619</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2705,13 @@
         <v>9252</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2729,7 +2720,7 @@
         <v>3860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>98</v>
@@ -2821,7 +2812,7 @@
         <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>105</v>
@@ -2875,7 +2866,7 @@
         <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2884,13 +2875,13 @@
         <v>5615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2899,13 +2890,13 @@
         <v>14452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2911,13 @@
         <v>16220</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3022,13 +3013,13 @@
         <v>3917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3037,13 +3028,13 @@
         <v>3955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3052,13 +3043,13 @@
         <v>7872</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3105,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3126,7 +3117,7 @@
         <v>3089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>142</v>
@@ -3183,7 +3174,7 @@
         <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3192,13 +3183,13 @@
         <v>2204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3246,10 +3237,10 @@
         <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -3336,7 +3327,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3348,10 +3339,10 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3360,10 +3351,10 @@
         <v>6630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>174</v>
@@ -3440,7 +3431,7 @@
         <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3449,13 +3440,13 @@
         <v>1990</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3464,10 +3455,10 @@
         <v>7238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>182</v>
@@ -3491,7 +3482,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3506,7 +3497,7 @@
         <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3515,13 +3506,13 @@
         <v>979</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3557,13 @@
         <v>21013</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3578,13 @@
         <v>285225</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>296</v>
@@ -3602,13 +3593,13 @@
         <v>302011</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>582</v>
@@ -3617,13 +3608,13 @@
         <v>587235</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3629,13 @@
         <v>1914</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3671,10 +3662,10 @@
         <v>108</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3721,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3742,13 +3733,13 @@
         <v>8490</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -3760,10 +3751,10 @@
         <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -3772,13 +3763,13 @@
         <v>28704</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3790,7 @@
         <v>106</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3814,7 +3805,7 @@
         <v>106</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3829,7 +3820,7 @@
         <v>106</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3835,13 @@
         <v>9300</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -3859,13 +3850,13 @@
         <v>17600</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -3874,13 +3865,13 @@
         <v>26900</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3886,13 @@
         <v>368910</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>511</v>
@@ -3910,13 +3901,13 @@
         <v>526341</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>895</v>
@@ -3925,13 +3916,13 @@
         <v>895250</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3937,13 @@
         <v>3512</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3961,13 +3952,13 @@
         <v>3108</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -3979,10 +3970,10 @@
         <v>101</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4041,13 @@
         <v>34291</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -4065,28 +4056,28 @@
         <v>29045</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>64</v>
       </c>
       <c r="N40" s="7">
-        <v>63337</v>
+        <v>63336</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4092,13 @@
         <v>39830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4122,7 +4113,7 @@
         <v>68</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -4131,13 +4122,13 @@
         <v>50537</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4143,13 @@
         <v>87656</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="H42" s="7">
         <v>129</v>
@@ -4167,13 +4158,13 @@
         <v>129883</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M42" s="7">
         <v>214</v>
@@ -4182,13 +4173,13 @@
         <v>217539</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4194,13 @@
         <v>2317763</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H43" s="7">
         <v>2369</v>
@@ -4218,28 +4209,28 @@
         <v>2431864</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="M43" s="7">
         <v>4644</v>
       </c>
       <c r="N43" s="7">
-        <v>4749629</v>
+        <v>4749628</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4245,13 @@
         <v>25253</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7">
         <v>28</v>
@@ -4269,13 +4260,13 @@
         <v>26312</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="M44" s="7">
         <v>51</v>
@@ -4284,13 +4275,13 @@
         <v>51566</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4323,7 @@
         <v>5021</v>
       </c>
       <c r="N45" s="7">
-        <v>5132607</v>
+        <v>5132606</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -4368,7 +4359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6A0795-F4E6-43C8-B63F-A3A0AFA708F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B7B6B0-4607-4455-B642-808CEC3E32D6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4498,7 +4489,7 @@
         <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4507,13 +4498,13 @@
         <v>986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4522,13 +4513,13 @@
         <v>986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4534,13 @@
         <v>2862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4561,7 +4552,7 @@
         <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>270</v>
@@ -4696,13 +4687,13 @@
         <v>1853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4717,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4726,13 +4717,13 @@
         <v>3853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,10 +4794,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4815,13 +4806,13 @@
         <v>4343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4830,13 +4821,13 @@
         <v>7143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4842,13 @@
         <v>9844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4866,13 +4857,13 @@
         <v>6001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4881,13 +4872,13 @@
         <v>15845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4893,13 @@
         <v>41120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -4917,28 +4908,28 @@
         <v>27112</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>67</v>
       </c>
       <c r="N12" s="7">
-        <v>68232</v>
+        <v>68233</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4944,13 @@
         <v>489274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -4968,28 +4959,28 @@
         <v>468778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>917</v>
       </c>
       <c r="N13" s="7">
-        <v>958052</v>
+        <v>958053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5001,7 @@
         <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5025,7 +5016,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5034,13 +5025,13 @@
         <v>988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,7 +5073,7 @@
         <v>1008</v>
       </c>
       <c r="N15" s="7">
-        <v>1050260</v>
+        <v>1050261</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5108,13 +5099,13 @@
         <v>7874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5123,13 +5114,13 @@
         <v>3685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5138,13 +5129,13 @@
         <v>11559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5150,13 @@
         <v>8283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5174,13 +5165,13 @@
         <v>6863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5189,13 +5180,13 @@
         <v>15147</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5201,13 @@
         <v>20477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -5225,13 +5216,13 @@
         <v>22123</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>149</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -5240,13 +5231,13 @@
         <v>42600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5252,13 @@
         <v>511593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>532</v>
@@ -5276,13 +5267,13 @@
         <v>567705</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>1019</v>
@@ -5291,13 +5282,13 @@
         <v>1079298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5303,13 @@
         <v>3947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5327,13 +5318,13 @@
         <v>3208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5342,13 +5333,13 @@
         <v>7156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,7 +5395,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5416,13 +5407,13 @@
         <v>986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5431,13 +5422,13 @@
         <v>3129</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>346</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5446,13 +5437,13 @@
         <v>4115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5458,13 @@
         <v>10809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5488,7 +5479,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5500,10 +5491,10 @@
         <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5509,13 @@
         <v>15483</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -5533,13 +5524,13 @@
         <v>23388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -5548,13 +5539,13 @@
         <v>38871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5560,13 @@
         <v>475082</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -5584,13 +5575,13 @@
         <v>498839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>857</v>
@@ -5599,13 +5590,13 @@
         <v>973921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +5617,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5641,7 +5632,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5653,10 +5644,10 @@
         <v>65</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5715,13 @@
         <v>2936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5745,7 +5736,7 @@
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5754,13 +5745,13 @@
         <v>4188</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5766,13 @@
         <v>5121</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5790,13 +5781,13 @@
         <v>2033</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5811,7 +5802,7 @@
         <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5817,13 @@
         <v>15076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -5841,13 +5832,13 @@
         <v>24828</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -5856,13 +5847,13 @@
         <v>39904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5868,13 @@
         <v>331303</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H31" s="7">
         <v>331</v>
@@ -5892,13 +5883,13 @@
         <v>365804</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M31" s="7">
         <v>636</v>
@@ -5907,13 +5898,13 @@
         <v>697106</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5919,13 @@
         <v>3091</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5949,7 +5940,7 @@
         <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>378</v>
+        <v>154</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -5958,13 +5949,13 @@
         <v>5161</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6011,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6032,13 +6023,13 @@
         <v>3254</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6047,13 +6038,13 @@
         <v>986</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>22</v>
+        <v>389</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6062,13 +6053,13 @@
         <v>4240</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6074,13 @@
         <v>2974</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>392</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6104,7 +6095,7 @@
         <v>106</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>205</v>
+        <v>393</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -6116,10 +6107,10 @@
         <v>24</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6125,13 @@
         <v>17583</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -6149,13 +6140,13 @@
         <v>48730</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -6164,13 +6155,13 @@
         <v>66313</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6176,13 @@
         <v>466103</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7">
         <v>580</v>
@@ -6200,13 +6191,13 @@
         <v>623859</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>1000</v>
@@ -6215,13 +6206,13 @@
         <v>1089962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>398</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6227,13 @@
         <v>2141</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6251,13 +6242,13 @@
         <v>1098</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -6269,10 +6260,10 @@
         <v>15</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6331,13 @@
         <v>17851</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>32</v>
+        <v>410</v>
       </c>
       <c r="H40" s="7">
         <v>13</v>
@@ -6355,13 +6346,13 @@
         <v>14380</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
@@ -6370,13 +6361,13 @@
         <v>32231</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6382,13 @@
         <v>39892</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>403</v>
+        <v>99</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -6409,10 +6400,10 @@
         <v>101</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M41" s="7">
         <v>60</v>
@@ -6421,13 +6412,13 @@
         <v>60991</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6433,13 @@
         <v>139458</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H42" s="7">
         <v>161</v>
@@ -6457,13 +6448,13 @@
         <v>171556</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M42" s="7">
         <v>296</v>
@@ -6472,13 +6463,13 @@
         <v>311015</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6484,13 @@
         <v>2605483</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>413</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>414</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
         <v>2621</v>
@@ -6508,13 +6499,13 @@
         <v>2836479</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M43" s="7">
         <v>5060</v>
@@ -6523,13 +6514,13 @@
         <v>5441962</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6535,13 @@
         <v>13217</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H44" s="7">
         <v>11</v>
@@ -6562,10 +6553,10 @@
         <v>107</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
@@ -6577,10 +6568,10 @@
         <v>148</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,7 +6649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9627DC-C0DC-4DB4-B2A3-7C7A3BF7C68C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A4788C-F433-451F-B576-DCB78FAEEFC7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6675,7 +6666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6788,7 +6779,7 @@
         <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6797,13 +6788,13 @@
         <v>3791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6812,13 +6803,13 @@
         <v>3791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,10 +6827,10 @@
         <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6848,13 +6839,13 @@
         <v>2914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6863,13 +6854,13 @@
         <v>7327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6875,13 @@
         <v>31793</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6899,13 +6890,13 @@
         <v>31974</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -6914,13 +6905,13 @@
         <v>63767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,28 +6926,28 @@
         <v>316203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
       </c>
       <c r="I7" s="7">
-        <v>293511</v>
+        <v>293510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M7" s="7">
         <v>597</v>
@@ -6965,13 +6956,13 @@
         <v>609713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,7 +6983,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7001,13 +6992,13 @@
         <v>1004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>443</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7022,7 +7013,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7040,7 @@
         <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>333195</v>
+        <v>333194</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7096,7 +7087,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -7111,7 +7102,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -7120,13 +7111,13 @@
         <v>2997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7132,13 @@
         <v>3070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7156,13 +7147,13 @@
         <v>6815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -7171,13 +7162,13 @@
         <v>9884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,7 +7186,7 @@
         <v>447</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>448</v>
@@ -7222,13 +7213,13 @@
         <v>59294</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,10 +7234,10 @@
         <v>457226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>454</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>455</v>
@@ -7264,7 +7255,7 @@
         <v>457</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>458</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>900</v>
@@ -7273,13 +7264,13 @@
         <v>904630</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,7 +7321,7 @@
         <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7389,13 @@
         <v>2213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7413,13 +7404,13 @@
         <v>2981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -7431,10 +7422,10 @@
         <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7440,13 @@
         <v>5837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7464,13 +7455,13 @@
         <v>884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7479,13 +7470,13 @@
         <v>6721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7491,13 @@
         <v>18033</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -7515,10 +7506,10 @@
         <v>29602</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>468</v>
@@ -7530,13 +7521,13 @@
         <v>47635</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7542,13 @@
         <v>519488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>550</v>
@@ -7566,13 +7557,13 @@
         <v>549454</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>1047</v>
@@ -7581,13 +7572,13 @@
         <v>1068942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7599,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7617,13 +7608,13 @@
         <v>2738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7632,13 +7623,13 @@
         <v>3787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,7 +7685,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7712,7 +7703,7 @@
         <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7721,13 +7712,13 @@
         <v>5499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -7736,13 +7727,13 @@
         <v>7726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7748,13 @@
         <v>4045</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>478</v>
+        <v>55</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7772,13 +7763,13 @@
         <v>979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>58</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7787,13 +7778,13 @@
         <v>5024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>481</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7799,13 @@
         <v>12246</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>482</v>
+        <v>385</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7823,13 +7814,13 @@
         <v>24660</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -7838,13 +7829,13 @@
         <v>36906</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>486</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7850,13 @@
         <v>503477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H25" s="7">
         <v>511</v>
@@ -7874,13 +7865,13 @@
         <v>551708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>965</v>
@@ -7889,13 +7880,13 @@
         <v>1055186</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7901,13 @@
         <v>2080</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7925,13 +7916,13 @@
         <v>880</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7940,13 +7931,13 @@
         <v>2960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8005,13 @@
         <v>2219</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8035,7 +8026,7 @@
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>111</v>
+        <v>500</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -8044,13 +8035,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8056,13 @@
         <v>3190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8086,7 +8077,7 @@
         <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -8098,10 +8089,10 @@
         <v>52</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,28 +8107,28 @@
         <v>19024</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>502</v>
+        <v>249</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>9726</v>
+        <v>9725</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>505</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -8146,13 +8137,13 @@
         <v>28750</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>506</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>409</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,28 +8158,28 @@
         <v>385602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>488</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>375</v>
       </c>
       <c r="I31" s="7">
-        <v>430991</v>
+        <v>430990</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M31" s="7">
         <v>721</v>
@@ -8197,13 +8188,13 @@
         <v>816592</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,7 +8215,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>514</v>
+        <v>304</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8239,7 +8230,7 @@
         <v>106</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8248,13 +8239,13 @@
         <v>1132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,7 +8272,7 @@
         <v>385</v>
       </c>
       <c r="I33" s="7">
-        <v>442540</v>
+        <v>442539</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -8310,7 +8301,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8322,13 +8313,13 @@
         <v>4006</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>55</v>
+        <v>462</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -8337,13 +8328,13 @@
         <v>3341</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -8352,13 +8343,13 @@
         <v>7347</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>177</v>
+        <v>392</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,7 +8370,7 @@
         <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>516</v>
+        <v>64</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8403,13 +8394,13 @@
         <v>1914</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,13 +8415,13 @@
         <v>11003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>517</v>
+        <v>329</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -8439,13 +8430,13 @@
         <v>7583</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8454,13 +8445,13 @@
         <v>18586</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,13 +8466,13 @@
         <v>506371</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H37" s="7">
         <v>581</v>
@@ -8490,13 +8481,13 @@
         <v>692988</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M37" s="7">
         <v>1117</v>
@@ -8505,13 +8496,13 @@
         <v>1199359</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8526,13 +8517,13 @@
         <v>901</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8547,7 +8538,7 @@
         <v>25</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>500</v>
+        <v>326</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -8559,10 +8550,10 @@
         <v>142</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,10 +8624,10 @@
         <v>170</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>18</v>
@@ -8645,13 +8636,13 @@
         <v>19485</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
@@ -8663,10 +8654,10 @@
         <v>62</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8672,13 @@
         <v>22468</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>528</v>
+        <v>17</v>
       </c>
       <c r="H41" s="7">
         <v>12</v>
@@ -8699,10 +8690,10 @@
         <v>52</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="M41" s="7">
         <v>33</v>
@@ -8711,13 +8702,13 @@
         <v>34061</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>235</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8723,13 @@
         <v>122917</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>530</v>
+        <v>153</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="H42" s="7">
         <v>132</v>
@@ -8747,13 +8738,13 @@
         <v>132021</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M42" s="7">
         <v>246</v>
@@ -8765,10 +8756,10 @@
         <v>120</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8774,13 @@
         <v>2688366</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H43" s="7">
         <v>2778</v>
@@ -8798,28 +8789,28 @@
         <v>2966058</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>538</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>539</v>
+        <v>165</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M43" s="7">
         <v>5347</v>
       </c>
       <c r="N43" s="7">
-        <v>5654424</v>
+        <v>5654423</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8834,13 +8825,13 @@
         <v>6060</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>229</v>
+        <v>539</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>527</v>
+        <v>390</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -8852,10 +8843,10 @@
         <v>98</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -8867,10 +8858,10 @@
         <v>98</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>107</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8912,7 +8903,7 @@
         <v>5668</v>
       </c>
       <c r="N45" s="7">
-        <v>5987479</v>
+        <v>5987478</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>

--- a/data/trans_orig/P36S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB343F7-9044-4E3B-BA13-098FE551C193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0000DD0B-7D57-46B7-BAEF-70F3106FC61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B56AA629-34B5-4F6D-BEFA-958E9FC16748}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{038CC07D-42BB-496F-B88A-B175A41D5BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="548">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -88,1576 +88,1600 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2016 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7F40D-1DBD-438B-BAAC-5472AD1B510E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1296C325-11CB-42BF-A218-EEBA662BE4BB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2265,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2274,19 +2298,19 @@
         <v>10085</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -2295,13 +2319,13 @@
         <v>8147</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -2310,13 +2334,13 @@
         <v>34418</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -2325,19 +2349,19 @@
         <v>42565</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>366</v>
@@ -2346,13 +2370,13 @@
         <v>363548</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>323</v>
@@ -2361,13 +2385,13 @@
         <v>308744</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>689</v>
@@ -2376,19 +2400,19 @@
         <v>672290</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2397,13 +2421,13 @@
         <v>5063</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -2412,13 +2436,13 @@
         <v>6346</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2427,13 +2451,13 @@
         <v>11409</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2472,13 @@
         <v>390968</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>371</v>
@@ -2463,13 +2487,13 @@
         <v>354276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>764</v>
@@ -2478,18 +2502,18 @@
         <v>745243</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2501,13 +2525,13 @@
         <v>2961</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2516,13 +2540,13 @@
         <v>1995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2531,13 +2555,13 @@
         <v>4956</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2576,13 @@
         <v>15425</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2567,13 +2591,13 @@
         <v>1988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -2582,19 +2606,19 @@
         <v>17414</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>30</v>
@@ -2603,13 +2627,13 @@
         <v>30940</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2618,13 +2642,13 @@
         <v>35590</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2633,19 +2657,19 @@
         <v>66531</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>480</v>
@@ -2654,13 +2678,13 @@
         <v>505596</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>398</v>
@@ -2669,13 +2693,13 @@
         <v>423023</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -2684,19 +2708,19 @@
         <v>928619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -2705,13 +2729,13 @@
         <v>9252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2720,13 +2744,13 @@
         <v>3860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2735,13 +2759,13 @@
         <v>13112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2780,13 @@
         <v>564175</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>441</v>
@@ -2771,13 +2795,13 @@
         <v>466456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>977</v>
@@ -2786,18 +2810,18 @@
         <v>1030631</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2809,13 +2833,13 @@
         <v>9476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2827,10 +2851,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2839,13 +2863,13 @@
         <v>9476</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2884,13 @@
         <v>8837</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2875,13 +2899,13 @@
         <v>5615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2890,19 +2914,19 @@
         <v>14452</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
@@ -2929,10 +2953,10 @@
         <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -2941,19 +2965,19 @@
         <v>38665</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>420</v>
@@ -2962,13 +2986,13 @@
         <v>430830</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -2977,13 +3001,13 @@
         <v>495123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>894</v>
@@ -2992,19 +3016,19 @@
         <v>925953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -3013,13 +3037,13 @@
         <v>3917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3028,13 +3052,13 @@
         <v>3955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3043,13 +3067,13 @@
         <v>7872</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3088,13 @@
         <v>469281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -3079,13 +3103,13 @@
         <v>527138</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>962</v>
@@ -3094,18 +3118,18 @@
         <v>996419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3117,13 +3141,13 @@
         <v>3089</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3138,7 +3162,7 @@
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3147,13 +3171,13 @@
         <v>4068</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3192,13 @@
         <v>5404</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3183,13 +3207,13 @@
         <v>2204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3198,19 +3222,19 @@
         <v>7607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
@@ -3219,13 +3243,13 @@
         <v>13810</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3234,13 +3258,13 @@
         <v>8056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -3249,19 +3273,19 @@
         <v>21866</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>339</v>
@@ -3270,13 +3294,13 @@
         <v>363656</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>367</v>
@@ -3285,13 +3309,13 @@
         <v>376625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>706</v>
@@ -3300,19 +3324,19 @@
         <v>740280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -3321,13 +3345,13 @@
         <v>1595</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3336,13 +3360,13 @@
         <v>5035</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3351,13 +3375,13 @@
         <v>6630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3396,13 @@
         <v>387554</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>383</v>
@@ -3387,13 +3411,13 @@
         <v>392898</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>742</v>
@@ -3402,18 +3426,18 @@
         <v>780451</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3425,13 +3449,13 @@
         <v>5248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3440,13 +3464,13 @@
         <v>1990</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3455,13 +3479,13 @@
         <v>7238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3500,13 @@
         <v>979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3494,10 +3518,10 @@
         <v>25</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3506,19 +3530,19 @@
         <v>979</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>9</v>
@@ -3527,13 +3551,13 @@
         <v>9238</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3542,13 +3566,13 @@
         <v>11774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -3557,19 +3581,19 @@
         <v>21013</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>286</v>
@@ -3578,13 +3602,13 @@
         <v>285225</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>296</v>
@@ -3593,13 +3617,13 @@
         <v>302011</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>582</v>
@@ -3608,19 +3632,19 @@
         <v>587235</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -3629,13 +3653,13 @@
         <v>1914</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3644,13 +3668,13 @@
         <v>4009</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3659,13 +3683,13 @@
         <v>5923</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3704,13 @@
         <v>302605</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>314</v>
@@ -3695,13 +3719,13 @@
         <v>319784</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>617</v>
@@ -3710,18 +3734,18 @@
         <v>622388</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3733,13 +3757,13 @@
         <v>8490</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -3748,13 +3772,13 @@
         <v>20213</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -3763,13 +3787,13 @@
         <v>28704</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,10 +3811,10 @@
         <v>25</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3802,10 +3826,10 @@
         <v>25</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3817,16 +3841,16 @@
         <v>25</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>9</v>
@@ -3835,13 +3859,13 @@
         <v>9300</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -3850,13 +3874,13 @@
         <v>17600</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -3865,19 +3889,19 @@
         <v>26900</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>384</v>
@@ -3886,13 +3910,13 @@
         <v>368910</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>511</v>
@@ -3901,13 +3925,13 @@
         <v>526341</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>895</v>
@@ -3916,19 +3940,19 @@
         <v>895250</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -3937,13 +3961,13 @@
         <v>3512</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3952,13 +3976,13 @@
         <v>3108</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -3967,13 +3991,13 @@
         <v>6620</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4012,13 @@
         <v>390212</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>553</v>
@@ -4003,13 +4027,13 @@
         <v>567262</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>959</v>
@@ -4018,13 +4042,13 @@
         <v>957474</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4065,13 @@
         <v>34291</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -4056,28 +4080,28 @@
         <v>29045</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M40" s="7">
         <v>64</v>
       </c>
       <c r="N40" s="7">
-        <v>63336</v>
+        <v>63337</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4116,13 @@
         <v>39830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -4107,13 +4131,13 @@
         <v>10707</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -4122,19 +4146,19 @@
         <v>50537</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>85</v>
@@ -4143,13 +4167,13 @@
         <v>87656</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="H42" s="7">
         <v>129</v>
@@ -4158,13 +4182,13 @@
         <v>129883</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M42" s="7">
         <v>214</v>
@@ -4173,19 +4197,19 @@
         <v>217539</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>2275</v>
@@ -4194,13 +4218,13 @@
         <v>2317763</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H43" s="7">
         <v>2369</v>
@@ -4209,34 +4233,34 @@
         <v>2431864</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M43" s="7">
         <v>4644</v>
       </c>
       <c r="N43" s="7">
-        <v>4749628</v>
+        <v>4749629</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>23</v>
@@ -4245,13 +4269,13 @@
         <v>25253</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7">
         <v>28</v>
@@ -4260,13 +4284,13 @@
         <v>26312</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
         <v>51</v>
@@ -4275,13 +4299,13 @@
         <v>51566</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4320,13 @@
         <v>2504794</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>2566</v>
@@ -4311,33 +4335,33 @@
         <v>2627812</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>5021</v>
       </c>
       <c r="N45" s="7">
-        <v>5132606</v>
+        <v>5132607</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B7B6B0-4607-4455-B642-808CEC3E32D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB3DDE2-198C-4CB6-9544-282B1947039A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,7 +4400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4486,10 +4510,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4498,13 +4522,13 @@
         <v>986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4513,13 +4537,13 @@
         <v>986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4558,13 @@
         <v>2862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4549,13 +4573,13 @@
         <v>4039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4564,19 +4588,19 @@
         <v>6901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -4585,13 +4609,13 @@
         <v>29719</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -4600,13 +4624,13 @@
         <v>25374</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -4615,19 +4639,19 @@
         <v>55093</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>326</v>
@@ -4636,13 +4660,13 @@
         <v>332127</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>305</v>
@@ -4651,13 +4675,13 @@
         <v>311495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
@@ -4666,19 +4690,19 @@
         <v>643621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4687,13 +4711,13 @@
         <v>1853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4702,13 +4726,13 @@
         <v>2000</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4717,13 +4741,13 @@
         <v>3853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4762,13 @@
         <v>366561</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>337</v>
@@ -4753,13 +4777,13 @@
         <v>343894</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>699</v>
@@ -4768,18 +4792,18 @@
         <v>710454</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4791,13 +4815,13 @@
         <v>2801</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4806,13 +4830,13 @@
         <v>4343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4821,13 +4845,13 @@
         <v>7143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4866,13 @@
         <v>9844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4857,13 +4881,13 @@
         <v>6001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4872,19 +4896,19 @@
         <v>15845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>41</v>
@@ -4893,13 +4917,13 @@
         <v>41120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -4908,34 +4932,34 @@
         <v>27112</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M12" s="7">
         <v>67</v>
       </c>
       <c r="N12" s="7">
-        <v>68233</v>
+        <v>68232</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>479</v>
@@ -4944,13 +4968,13 @@
         <v>489274</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -4959,34 +4983,34 @@
         <v>468778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>917</v>
       </c>
       <c r="N13" s="7">
-        <v>958053</v>
+        <v>958052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4998,10 +5022,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5010,13 +5034,13 @@
         <v>988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5025,13 +5049,13 @@
         <v>988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5070,13 @@
         <v>543038</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>475</v>
@@ -5061,33 +5085,33 @@
         <v>507222</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1008</v>
       </c>
       <c r="N15" s="7">
-        <v>1050261</v>
+        <v>1050260</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5099,13 +5123,13 @@
         <v>7874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5114,13 +5138,13 @@
         <v>3685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5129,13 +5153,13 @@
         <v>11559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5174,13 @@
         <v>8283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5165,13 +5189,13 @@
         <v>6863</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5180,19 +5204,19 @@
         <v>15147</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
@@ -5201,13 +5225,13 @@
         <v>20477</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -5216,13 +5240,13 @@
         <v>22123</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -5231,10 +5255,10 @@
         <v>42600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>335</v>
@@ -5243,7 +5267,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>487</v>
@@ -5267,13 +5291,13 @@
         <v>567705</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>1019</v>
@@ -5282,19 +5306,19 @@
         <v>1079298</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -5303,13 +5327,13 @@
         <v>3947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5318,13 +5342,13 @@
         <v>3208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5333,13 +5357,13 @@
         <v>7156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5378,13 @@
         <v>552175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>566</v>
@@ -5369,13 +5393,13 @@
         <v>603585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1092</v>
@@ -5384,18 +5408,18 @@
         <v>1155760</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5407,13 +5431,13 @@
         <v>986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5422,13 +5446,13 @@
         <v>3129</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5437,13 +5461,13 @@
         <v>4115</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>348</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5482,13 @@
         <v>10809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5473,13 +5497,13 @@
         <v>2163</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5488,19 +5512,19 @@
         <v>12971</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>13</v>
@@ -5509,13 +5533,13 @@
         <v>15483</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -5524,13 +5548,13 @@
         <v>23388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -5539,19 +5563,19 @@
         <v>38871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>355</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>422</v>
@@ -5560,13 +5584,13 @@
         <v>475082</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -5575,13 +5599,13 @@
         <v>498839</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>857</v>
@@ -5590,19 +5614,19 @@
         <v>973921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -5611,13 +5635,13 @@
         <v>2185</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5626,13 +5650,13 @@
         <v>2267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5641,13 +5665,13 @@
         <v>4452</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5686,13 @@
         <v>504544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>462</v>
@@ -5677,13 +5701,13 @@
         <v>529786</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>910</v>
@@ -5692,18 +5716,18 @@
         <v>1034330</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5718,7 +5742,7 @@
         <v>366</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>367</v>
@@ -5730,13 +5754,13 @@
         <v>1252</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5745,13 +5769,13 @@
         <v>4188</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5790,13 @@
         <v>5121</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>368</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5781,13 +5805,13 @@
         <v>2033</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5796,19 +5820,19 @@
         <v>7154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
@@ -5817,13 +5841,13 @@
         <v>15076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -5832,13 +5856,13 @@
         <v>24828</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -5847,19 +5871,19 @@
         <v>39904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>305</v>
@@ -5868,13 +5892,13 @@
         <v>331303</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
         <v>331</v>
@@ -5883,13 +5907,13 @@
         <v>365804</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M31" s="7">
         <v>636</v>
@@ -5898,19 +5922,19 @@
         <v>697106</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>194</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
@@ -5919,13 +5943,13 @@
         <v>3091</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5934,13 +5958,13 @@
         <v>2070</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -5949,13 +5973,13 @@
         <v>5161</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5994,13 @@
         <v>357527</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>359</v>
@@ -5985,13 +6009,13 @@
         <v>395987</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>689</v>
@@ -6000,18 +6024,18 @@
         <v>753514</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6023,13 +6047,13 @@
         <v>3254</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>387</v>
+        <v>98</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6038,13 +6062,13 @@
         <v>986</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>389</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6053,13 +6077,13 @@
         <v>4240</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>390</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>391</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6098,13 @@
         <v>2974</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6092,10 +6116,10 @@
         <v>25</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -6110,13 +6134,13 @@
         <v>390</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>16</v>
@@ -6125,13 +6149,13 @@
         <v>17583</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -6140,13 +6164,13 @@
         <v>48730</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -6155,19 +6179,19 @@
         <v>66313</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>188</v>
+        <v>399</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>420</v>
@@ -6176,13 +6200,13 @@
         <v>466103</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H37" s="7">
         <v>580</v>
@@ -6191,13 +6215,13 @@
         <v>623859</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>406</v>
+        <v>186</v>
       </c>
       <c r="M37" s="7">
         <v>1000</v>
@@ -6209,16 +6233,16 @@
         <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -6227,13 +6251,13 @@
         <v>2141</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>409</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>116</v>
+        <v>410</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6242,13 +6266,13 @@
         <v>1098</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -6260,10 +6284,10 @@
         <v>15</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>389</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6302,13 @@
         <v>492056</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>628</v>
@@ -6293,13 +6317,13 @@
         <v>674672</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>1071</v>
@@ -6308,13 +6332,13 @@
         <v>1166728</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6355,13 @@
         <v>17851</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H40" s="7">
         <v>13</v>
@@ -6346,13 +6370,13 @@
         <v>14380</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>95</v>
+        <v>366</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
@@ -6361,13 +6385,13 @@
         <v>32231</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6406,13 @@
         <v>39892</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -6397,13 +6421,13 @@
         <v>21099</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>14</v>
+        <v>411</v>
       </c>
       <c r="M41" s="7">
         <v>60</v>
@@ -6415,16 +6439,16 @@
         <v>411</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>412</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>135</v>
@@ -6433,13 +6457,13 @@
         <v>139458</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H42" s="7">
         <v>161</v>
@@ -6448,13 +6472,13 @@
         <v>171556</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M42" s="7">
         <v>296</v>
@@ -6463,19 +6487,19 @@
         <v>311015</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>2439</v>
@@ -6484,13 +6508,13 @@
         <v>2605483</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="H43" s="7">
         <v>2621</v>
@@ -6499,13 +6523,13 @@
         <v>2836479</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M43" s="7">
         <v>5060</v>
@@ -6514,19 +6538,19 @@
         <v>5441962</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>13</v>
@@ -6535,13 +6559,13 @@
         <v>13217</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="H44" s="7">
         <v>11</v>
@@ -6550,13 +6574,13 @@
         <v>11632</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
@@ -6565,13 +6589,13 @@
         <v>24849</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>148</v>
+        <v>429</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6610,13 @@
         <v>2815902</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>2827</v>
@@ -6601,13 +6625,13 @@
         <v>3055146</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>5469</v>
@@ -6616,18 +6640,18 @@
         <v>5871048</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6649,7 +6673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A4788C-F433-451F-B576-DCB78FAEEFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4525FC72-13F1-41BB-9397-3909CE93B22B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6666,7 +6690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6776,10 +6800,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6788,13 +6812,13 @@
         <v>3791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6803,13 +6827,13 @@
         <v>3791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6848,13 @@
         <v>4412</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6839,13 +6863,13 @@
         <v>2914</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6854,19 +6878,19 @@
         <v>7327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>409</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>30</v>
@@ -6875,13 +6899,13 @@
         <v>31793</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6890,13 +6914,13 @@
         <v>31974</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -6905,19 +6929,19 @@
         <v>63767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>298</v>
@@ -6926,13 +6950,13 @@
         <v>316203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>444</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -6941,13 +6965,13 @@
         <v>293510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M7" s="7">
         <v>597</v>
@@ -6956,19 +6980,19 @@
         <v>609713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6983,7 +7007,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6992,13 +7016,13 @@
         <v>1004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>452</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7013,7 +7037,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7052,13 @@
         <v>353306</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>340</v>
@@ -7043,13 +7067,13 @@
         <v>333194</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>673</v>
@@ -7058,18 +7082,18 @@
         <v>686500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7081,13 +7105,13 @@
         <v>948</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -7096,13 +7120,13 @@
         <v>2049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -7111,13 +7135,13 @@
         <v>2997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>445</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7156,13 @@
         <v>3070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>446</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7147,13 +7171,13 @@
         <v>6815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -7162,19 +7186,19 @@
         <v>9884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
@@ -7183,13 +7207,13 @@
         <v>30818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -7198,13 +7222,13 @@
         <v>28476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -7213,19 +7237,19 @@
         <v>59294</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>438</v>
@@ -7234,13 +7258,13 @@
         <v>457226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>466</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>462</v>
@@ -7249,13 +7273,13 @@
         <v>447405</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>900</v>
@@ -7264,19 +7288,19 @@
         <v>904630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -7288,10 +7312,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7303,10 +7327,10 @@
         <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7318,10 +7342,10 @@
         <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7360,13 @@
         <v>492061</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>501</v>
@@ -7351,13 +7375,13 @@
         <v>484745</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>972</v>
@@ -7366,18 +7390,18 @@
         <v>976806</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7389,13 +7413,13 @@
         <v>2213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7404,13 +7428,13 @@
         <v>2981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -7419,13 +7443,13 @@
         <v>5194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7464,13 @@
         <v>5837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7455,13 +7479,13 @@
         <v>884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7470,19 +7494,19 @@
         <v>6721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -7491,13 +7515,13 @@
         <v>18033</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -7506,13 +7530,13 @@
         <v>29602</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -7521,19 +7545,19 @@
         <v>47635</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>470</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>497</v>
@@ -7542,13 +7566,13 @@
         <v>519488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>361</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>550</v>
@@ -7557,13 +7581,13 @@
         <v>549454</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>1047</v>
@@ -7572,19 +7596,19 @@
         <v>1068942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -7593,13 +7617,13 @@
         <v>1049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7608,13 +7632,13 @@
         <v>2738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7623,13 +7647,13 @@
         <v>3787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7668,13 @@
         <v>546620</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>587</v>
@@ -7659,13 +7683,13 @@
         <v>585660</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1109</v>
@@ -7674,18 +7698,18 @@
         <v>1132280</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7697,13 +7721,13 @@
         <v>2227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7712,13 +7736,13 @@
         <v>5499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -7727,13 +7751,13 @@
         <v>7726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7772,13 @@
         <v>4045</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7763,13 +7787,13 @@
         <v>979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7778,19 +7802,19 @@
         <v>5024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -7799,13 +7823,13 @@
         <v>12246</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>385</v>
+        <v>489</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>485</v>
+        <v>374</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7814,13 +7838,13 @@
         <v>24660</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -7829,19 +7853,19 @@
         <v>36906</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>93</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>454</v>
@@ -7850,13 +7874,13 @@
         <v>503477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>511</v>
@@ -7865,13 +7889,13 @@
         <v>551708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>965</v>
@@ -7880,19 +7904,19 @@
         <v>1055186</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>42</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -7901,13 +7925,13 @@
         <v>2080</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7916,13 +7940,13 @@
         <v>880</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -7931,13 +7955,13 @@
         <v>2960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>390</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7976,13 @@
         <v>524075</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>541</v>
@@ -7967,13 +7991,13 @@
         <v>583726</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1014</v>
@@ -7982,18 +8006,18 @@
         <v>1107802</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8005,13 +8029,13 @@
         <v>2219</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8020,13 +8044,13 @@
         <v>1823</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -8035,13 +8059,13 @@
         <v>4042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8080,13 @@
         <v>3190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8074,7 +8098,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>12</v>
@@ -8086,19 +8110,19 @@
         <v>3190</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>52</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -8107,28 +8131,28 @@
         <v>19024</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>9725</v>
+        <v>9726</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>505</v>
+        <v>237</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -8137,19 +8161,19 @@
         <v>28750</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>510</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>346</v>
@@ -8158,28 +8182,28 @@
         <v>385602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>514</v>
       </c>
       <c r="H31" s="7">
         <v>375</v>
       </c>
       <c r="I31" s="7">
-        <v>430990</v>
+        <v>430991</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>512</v>
+        <v>42</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M31" s="7">
         <v>721</v>
@@ -8188,19 +8212,19 @@
         <v>816592</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -8215,7 +8239,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8227,7 +8251,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>12</v>
@@ -8239,13 +8263,13 @@
         <v>1132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>177</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,28 +8284,28 @@
         <v>411167</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>385</v>
       </c>
       <c r="I33" s="7">
-        <v>442539</v>
+        <v>442540</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>753</v>
@@ -8290,18 +8314,18 @@
         <v>853706</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8313,13 +8337,13 @@
         <v>4006</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -8328,13 +8352,13 @@
         <v>3341</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -8343,13 +8367,13 @@
         <v>7347</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>501</v>
+        <v>388</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8388,13 @@
         <v>1914</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>52</v>
+        <v>474</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8382,10 +8406,10 @@
         <v>25</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -8394,19 +8418,19 @@
         <v>1914</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>11</v>
@@ -8415,13 +8439,13 @@
         <v>11003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>114</v>
+        <v>522</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>329</v>
+        <v>523</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -8430,13 +8454,13 @@
         <v>7583</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8445,19 +8469,19 @@
         <v>18586</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>536</v>
@@ -8466,13 +8490,13 @@
         <v>506371</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H37" s="7">
         <v>581</v>
@@ -8481,13 +8505,13 @@
         <v>692988</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M37" s="7">
         <v>1117</v>
@@ -8496,19 +8520,19 @@
         <v>1199359</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>526</v>
+        <v>157</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -8517,13 +8541,13 @@
         <v>901</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8532,13 +8556,13 @@
         <v>2277</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>326</v>
+        <v>533</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -8547,13 +8571,13 @@
         <v>3178</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>529</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8592,13 @@
         <v>524196</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>593</v>
@@ -8583,13 +8607,13 @@
         <v>706189</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>1147</v>
@@ -8598,13 +8622,13 @@
         <v>1230385</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8645,13 @@
         <v>11613</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H40" s="7">
         <v>18</v>
@@ -8636,13 +8660,13 @@
         <v>19485</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
@@ -8651,13 +8675,13 @@
         <v>31098</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8696,13 @@
         <v>22468</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>17</v>
+        <v>534</v>
       </c>
       <c r="H41" s="7">
         <v>12</v>
@@ -8687,13 +8711,13 @@
         <v>11592</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>52</v>
+        <v>474</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M41" s="7">
         <v>33</v>
@@ -8702,19 +8726,19 @@
         <v>34061</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>114</v>
@@ -8723,13 +8747,13 @@
         <v>122917</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H42" s="7">
         <v>132</v>
@@ -8738,13 +8762,13 @@
         <v>132021</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M42" s="7">
         <v>246</v>
@@ -8756,16 +8780,16 @@
         <v>120</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>2569</v>
@@ -8774,13 +8798,13 @@
         <v>2688366</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="H43" s="7">
         <v>2778</v>
@@ -8789,13 +8813,13 @@
         <v>2966058</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>165</v>
+        <v>543</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M43" s="7">
         <v>5347</v>
@@ -8804,19 +8828,19 @@
         <v>5654423</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>6</v>
@@ -8825,13 +8849,13 @@
         <v>6060</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>539</v>
+        <v>132</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>390</v>
+        <v>547</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>347</v>
+        <v>51</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -8840,13 +8864,13 @@
         <v>6899</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>409</v>
+        <v>161</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -8855,13 +8879,13 @@
         <v>12958</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,13 +8900,13 @@
         <v>2851424</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>2947</v>
@@ -8891,13 +8915,13 @@
         <v>3136055</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>5668</v>
@@ -8906,18 +8930,18 @@
         <v>5987478</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
